--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/123/word_level_predictions_123.xlsx
@@ -1149,393 +1149,393 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" t="inlineStr">
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>Missed_I-Event</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" t="inlineStr">
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F16" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G15" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" t="b">
-        <v>1</v>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K15" t="b">
-        <v>1</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" t="inlineStr">
+      <c r="G16" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" t="inlineStr">
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F17" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G16" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" t="b">
-        <v>1</v>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K16" t="b">
-        <v>1</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" t="inlineStr">
+      <c r="G17" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F18" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G17" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" t="b">
-        <v>1</v>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K17" t="b">
-        <v>1</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" t="inlineStr">
+      <c r="G18" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" t="inlineStr">
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F19" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G18" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" t="b">
-        <v>1</v>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K18" t="b">
-        <v>1</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" t="inlineStr">
+      <c r="G19" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" t="inlineStr">
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F20" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G19" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" t="b">
-        <v>1</v>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K19" t="b">
-        <v>1</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" t="inlineStr">
+      <c r="G20" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" s="2" t="inlineStr">
         <is>
           <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" t="b">
-        <v>1</v>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K20" t="b">
-        <v>1</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" t="inlineStr">
+      <c r="C21" s="2" t="inlineStr">
         <is>
           <t>Plant)</t>
         </is>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="E21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G21" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" t="b">
-        <v>1</v>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K21" t="b">
-        <v>1</v>
-      </c>
-      <c r="L21" t="inlineStr">
+      <c r="G21" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2634,208 +2634,208 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
+      <c r="A43" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="C43" s="2" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" t="b">
-        <v>1</v>
-      </c>
-      <c r="J43" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K43" t="b">
-        <v>1</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_B</t>
+      <c r="E43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K43" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L43" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
+      <c r="A44" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="C44" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" t="n">
+      <c r="D44" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" t="b">
-        <v>1</v>
-      </c>
-      <c r="J44" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K44" t="b">
-        <v>1</v>
-      </c>
-      <c r="L44" t="inlineStr">
+      <c r="E44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J44" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K44" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L44" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
+      <c r="A45" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="C45" s="2" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" t="n">
+      <c r="D45" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" t="b">
-        <v>1</v>
-      </c>
-      <c r="J45" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K45" t="b">
-        <v>1</v>
-      </c>
-      <c r="L45" t="inlineStr">
+      <c r="E45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J45" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K45" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L45" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
+      <c r="A46" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" s="2" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="C46" s="2" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" t="n">
+      <c r="D46" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="E46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="F46" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" t="b">
-        <v>1</v>
-      </c>
-      <c r="J46" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K46" t="b">
-        <v>1</v>
-      </c>
-      <c r="L46" t="inlineStr">
+      <c r="G46" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J46" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K46" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L46" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
+      <c r="A78" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B78" t="inlineStr">
+      <c r="B78" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" t="inlineStr">
+      <c r="C78" s="2" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" t="n">
+      <c r="D78" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E78" t="inlineStr">
+      <c r="E78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" t="inlineStr">
+      <c r="F78" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" t="b">
-        <v>1</v>
-      </c>
-      <c r="J78" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K78" t="b">
-        <v>1</v>
-      </c>
-      <c r="L78" t="inlineStr">
+      <c r="G78" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J78" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K78" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L78" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
+      <c r="A79" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="B79" t="inlineStr">
+      <c r="B79" s="2" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" t="inlineStr">
+      <c r="C79" s="2" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" t="inlineStr">
+      <c r="D79" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G79" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" t="b">
-        <v>1</v>
-      </c>
-      <c r="J79" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K79" t="b">
-        <v>1</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
+      <c r="F79" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G79" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J79" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K79" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L79" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" s="2" t="n">
+      <c r="A197" t="n">
         <v>19</v>
       </c>
-      <c r="B197" s="2" t="inlineStr">
+      <c r="B197" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" s="2" t="inlineStr">
+      <c r="C197" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" s="2" t="n">
+      <c r="D197" t="n">
         <v>0</v>
       </c>
-      <c r="E197" s="2" t="inlineStr">
+      <c r="E197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" s="2" t="inlineStr">
+      <c r="F197" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J197" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K197" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L197" s="2" t="inlineStr">
+      <c r="G197" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" t="b">
+        <v>1</v>
+      </c>
+      <c r="J197" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K197" t="b">
+        <v>1</v>
+      </c>
+      <c r="L197" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" s="2" t="n">
+      <c r="A198" t="n">
         <v>19</v>
       </c>
-      <c r="B198" s="2" t="inlineStr">
+      <c r="B198" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" s="2" t="inlineStr">
+      <c r="C198" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" s="2" t="inlineStr">
+      <c r="D198" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" s="2" t="inlineStr">
+      <c r="F198" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J198" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K198" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L198" s="2" t="inlineStr">
+      <c r="G198" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" t="b">
+        <v>1</v>
+      </c>
+      <c r="J198" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K198" t="b">
+        <v>1</v>
+      </c>
+      <c r="L198" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" s="2" t="n">
+      <c r="A199" t="n">
         <v>19</v>
       </c>
-      <c r="B199" s="2" t="inlineStr">
+      <c r="B199" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" s="2" t="inlineStr">
+      <c r="C199" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" s="2" t="n">
+      <c r="D199" t="n">
         <v>2</v>
       </c>
-      <c r="E199" s="2" t="inlineStr">
+      <c r="E199" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G199" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J199" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K199" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L199" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_E_as_I</t>
+      <c r="F199" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G199" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" t="b">
+        <v>1</v>
+      </c>
+      <c r="J199" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K199" t="b">
+        <v>1</v>
+      </c>
+      <c r="L199" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-Event</t>
+          <t>E-NonEvent</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>Event</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -12358,416 +12358,416 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
+      <c r="A230" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B230" t="inlineStr">
+      <c r="B230" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C230" t="inlineStr">
+      <c r="C230" s="2" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D230" t="n">
+      <c r="D230" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E230" t="inlineStr">
+      <c r="E230" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F230" t="inlineStr">
+      <c r="F230" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G230" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I230" t="b">
-        <v>1</v>
-      </c>
-      <c r="J230" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K230" t="b">
-        <v>1</v>
-      </c>
-      <c r="L230" t="inlineStr">
+      <c r="G230" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J230" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K230" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L230" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
+      <c r="A231" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B231" t="inlineStr">
+      <c r="B231" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C231" t="inlineStr">
+      <c r="C231" s="2" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D231" t="n">
-        <v>1</v>
-      </c>
-      <c r="E231" t="inlineStr">
+      <c r="D231" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F231" t="inlineStr">
+      <c r="F231" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G231" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I231" t="b">
-        <v>1</v>
-      </c>
-      <c r="J231" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K231" t="b">
-        <v>1</v>
-      </c>
-      <c r="L231" t="inlineStr">
+      <c r="G231" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J231" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K231" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L231" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
+      <c r="A232" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B232" t="inlineStr">
+      <c r="B232" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C232" t="inlineStr">
+      <c r="C232" s="2" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D232" t="n">
+      <c r="D232" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E232" t="inlineStr">
+      <c r="E232" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F232" t="inlineStr">
+      <c r="F232" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G232" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I232" t="b">
-        <v>1</v>
-      </c>
-      <c r="J232" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K232" t="b">
-        <v>1</v>
-      </c>
-      <c r="L232" t="inlineStr">
+      <c r="G232" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J232" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K232" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L232" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
+      <c r="A233" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B233" t="inlineStr">
+      <c r="B233" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C233" t="inlineStr">
+      <c r="C233" s="2" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D233" t="n">
+      <c r="D233" s="2" t="n">
         <v>3</v>
       </c>
-      <c r="E233" t="inlineStr">
+      <c r="E233" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F233" t="inlineStr">
+      <c r="F233" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G233" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J233" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K233" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L233" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B234" s="2" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C234" s="2" t="inlineStr">
+        <is>
+          <t>pack</t>
+        </is>
+      </c>
+      <c r="D234" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E234" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G233" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" t="b">
-        <v>1</v>
-      </c>
-      <c r="J233" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K233" t="b">
-        <v>1</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="234">
-      <c r="A234" t="n">
+      <c r="F234" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G234" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J234" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K234" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L234" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B234" t="inlineStr">
+      <c r="B235" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C234" t="inlineStr">
-        <is>
-          <t>pack</t>
-        </is>
-      </c>
-      <c r="D234" t="n">
-        <v>4</v>
-      </c>
-      <c r="E234" t="inlineStr">
+      <c r="C235" s="2" t="inlineStr">
+        <is>
+          <t>up</t>
+        </is>
+      </c>
+      <c r="D235" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E235" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" t="inlineStr">
+      <c r="F235" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G235" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J235" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K235" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L235" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B236" s="2" t="inlineStr">
+        <is>
+          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
+        </is>
+      </c>
+      <c r="C236" s="2" t="inlineStr">
+        <is>
+          <t>landing</t>
+        </is>
+      </c>
+      <c r="D236" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E236" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G234" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" t="b">
-        <v>1</v>
-      </c>
-      <c r="J234" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K234" t="b">
-        <v>1</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="235">
-      <c r="A235" t="n">
+      <c r="F236" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G236" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J236" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K236" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L236" s="2" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" s="2" t="n">
         <v>21</v>
       </c>
-      <c r="B235" t="inlineStr">
+      <c r="B237" s="2" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C235" t="inlineStr">
-        <is>
-          <t>up</t>
-        </is>
-      </c>
-      <c r="D235" t="n">
-        <v>5</v>
-      </c>
-      <c r="E235" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F235" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G235" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" t="b">
-        <v>1</v>
-      </c>
-      <c r="J235" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K235" t="b">
-        <v>1</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="236">
-      <c r="A236" t="n">
-        <v>21</v>
-      </c>
-      <c r="B236" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C236" t="inlineStr">
-        <is>
-          <t>landing</t>
-        </is>
-      </c>
-      <c r="D236" t="n">
-        <v>6</v>
-      </c>
-      <c r="E236" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F236" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G236" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" t="b">
-        <v>1</v>
-      </c>
-      <c r="J236" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K236" t="b">
-        <v>1</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="237">
-      <c r="A237" t="n">
-        <v>21</v>
-      </c>
-      <c r="B237" t="inlineStr">
-        <is>
-          <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
-        </is>
-      </c>
-      <c r="C237" t="inlineStr">
+      <c r="C237" s="2" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" t="n">
+      <c r="D237" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E237" t="inlineStr">
+      <c r="E237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" t="inlineStr">
+      <c r="F237" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" t="b">
-        <v>1</v>
-      </c>
-      <c r="J237" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K237" t="b">
-        <v>1</v>
-      </c>
-      <c r="L237" t="inlineStr">
+      <c r="G237" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J237" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K237" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L237" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_Event_as_NonEvent</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>NonEvent</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -24237,7 +24237,7 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G458" t="b">
@@ -24261,59 +24261,59 @@
       </c>
       <c r="L458" t="inlineStr">
         <is>
-          <t>Wrong_Tag_E_as_I</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="459">
-      <c r="A459" s="2" t="n">
+      <c r="A459" t="n">
         <v>42</v>
       </c>
-      <c r="B459" s="2" t="inlineStr">
+      <c r="B459" t="inlineStr">
         <is>
           <t>Compass Interference Temp Max Altitude 98ft .</t>
         </is>
       </c>
-      <c r="C459" s="2" t="inlineStr">
+      <c r="C459" t="inlineStr">
         <is>
           <t>Temp</t>
         </is>
       </c>
-      <c r="D459" s="2" t="n">
+      <c r="D459" t="n">
         <v>2</v>
       </c>
-      <c r="E459" s="2" t="inlineStr">
+      <c r="E459" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F459" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K459" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L459" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F459" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G459" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K459" t="b">
+        <v>1</v>
+      </c>
+      <c r="L459" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>B-NonEvent</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G460" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Wrong_Tag_I_as_B</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" s="2" t="n">
+      <c r="A490" t="n">
         <v>45</v>
       </c>
-      <c r="B490" s="2" t="inlineStr">
+      <c r="B490" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" s="2" t="inlineStr">
+      <c r="C490" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" s="2" t="n">
+      <c r="D490" t="n">
         <v>7</v>
       </c>
-      <c r="E490" s="2" t="inlineStr">
+      <c r="E490" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" s="2" t="inlineStr">
-        <is>
-          <t>B-Event</t>
-        </is>
-      </c>
-      <c r="G490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K490" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L490" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F490" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G490" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K490" t="b">
+        <v>1</v>
+      </c>
+      <c r="L490" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" s="2" t="n">
+      <c r="A491" t="n">
         <v>45</v>
       </c>
-      <c r="B491" s="2" t="inlineStr">
+      <c r="B491" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" s="2" t="inlineStr">
+      <c r="C491" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" s="2" t="n">
+      <c r="D491" t="n">
         <v>8</v>
       </c>
-      <c r="E491" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K491" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L491" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G491" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K491" t="b">
+        <v>1</v>
+      </c>
+      <c r="L491" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" s="2" t="n">
+      <c r="A492" t="n">
         <v>45</v>
       </c>
-      <c r="B492" s="2" t="inlineStr">
+      <c r="B492" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" s="2" t="inlineStr">
+      <c r="C492" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" s="2" t="n">
+      <c r="D492" t="n">
         <v>9</v>
       </c>
-      <c r="E492" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K492" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L492" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G492" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K492" t="b">
+        <v>1</v>
+      </c>
+      <c r="L492" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" s="2" t="n">
+      <c r="A493" t="n">
         <v>45</v>
       </c>
-      <c r="B493" s="2" t="inlineStr">
+      <c r="B493" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" s="2" t="inlineStr">
+      <c r="C493" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" s="2" t="n">
+      <c r="D493" t="n">
         <v>10</v>
       </c>
-      <c r="E493" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K493" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L493" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G493" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K493" t="b">
+        <v>1</v>
+      </c>
+      <c r="L493" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" s="2" t="n">
+      <c r="A494" t="n">
         <v>45</v>
       </c>
-      <c r="B494" s="2" t="inlineStr">
+      <c r="B494" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" s="2" t="inlineStr">
+      <c r="C494" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" s="2" t="n">
+      <c r="D494" t="n">
         <v>11</v>
       </c>
-      <c r="E494" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K494" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L494" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G494" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K494" t="b">
+        <v>1</v>
+      </c>
+      <c r="L494" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" s="2" t="n">
+      <c r="A495" t="n">
         <v>45</v>
       </c>
-      <c r="B495" s="2" t="inlineStr">
+      <c r="B495" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" s="2" t="inlineStr">
+      <c r="C495" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" s="2" t="n">
+      <c r="D495" t="n">
         <v>12</v>
       </c>
-      <c r="E495" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K495" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L495" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="E495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G495" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K495" t="b">
+        <v>1</v>
+      </c>
+      <c r="L495" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" s="2" t="n">
+      <c r="A496" t="n">
         <v>45</v>
       </c>
-      <c r="B496" s="2" t="inlineStr">
+      <c r="B496" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" s="2" t="inlineStr">
+      <c r="C496" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" s="2" t="n">
+      <c r="D496" t="n">
         <v>13</v>
       </c>
-      <c r="E496" s="2" t="inlineStr">
+      <c r="E496" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K496" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L496" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+      <c r="F496" t="inlineStr">
+        <is>
+          <t>E-NonEvent</t>
+        </is>
+      </c>
+      <c r="G496" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K496" t="b">
+        <v>1</v>
+      </c>
+      <c r="L496" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/123/word_level_predictions_123.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-40_remove/rem2/123/word_level_predictions_123.xlsx
@@ -1149,393 +1149,393 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I14" t="b">
+        <v>1</v>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K14" t="b">
+        <v>1</v>
+      </c>
+      <c r="L14" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>1</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>(Airport</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>7</v>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I15" t="b">
+        <v>1</v>
+      </c>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K15" t="b">
+        <v>1</v>
+      </c>
+      <c r="L15" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>1</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Class</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>8</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I16" t="b">
+        <v>1</v>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K16" t="b">
+        <v>1</v>
+      </c>
+      <c r="L16" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>1</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Airspace</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>9</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I17" t="b">
+        <v>1</v>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K17" t="b">
+        <v>1</v>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>1</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Unpaved</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>10</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I18" t="b">
+        <v>1</v>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K18" t="b">
+        <v>1</v>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>1</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Airports</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>11</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I19" t="b">
+        <v>1</v>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K19" t="b">
+        <v>1</v>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>1</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Power</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>12</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I20" t="b">
+        <v>1</v>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K20" t="b">
+        <v>1</v>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>Correct</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>1</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Plant)</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>13</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G14" t="b">
-        <v>1</v>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I14" t="b">
-        <v>1</v>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K14" t="b">
-        <v>1</v>
-      </c>
-      <c r="L14" t="inlineStr">
-        <is>
-          <t>Wrong_Tag_I_as_E</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B15" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C15" s="2" t="inlineStr">
-        <is>
-          <t>(Airport</t>
-        </is>
-      </c>
-      <c r="D15" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="E15" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F15" s="2" t="inlineStr">
-        <is>
-          <t>O</t>
-        </is>
-      </c>
-      <c r="G15" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H15" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K15" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>Missed_I-Event</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B16" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C16" s="2" t="inlineStr">
-        <is>
-          <t>Class</t>
-        </is>
-      </c>
-      <c r="D16" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F16" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G16" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H16" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K16" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C17" s="2" t="inlineStr">
-        <is>
-          <t>Airspace</t>
-        </is>
-      </c>
-      <c r="D17" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="E17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F17" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G17" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H17" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B18" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C18" s="2" t="inlineStr">
-        <is>
-          <t>Unpaved</t>
-        </is>
-      </c>
-      <c r="D18" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="E18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F18" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G18" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H18" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K18" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B19" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C19" s="2" t="inlineStr">
-        <is>
-          <t>Airports</t>
-        </is>
-      </c>
-      <c r="D19" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="E19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F19" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G19" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H19" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K19" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B20" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C20" s="2" t="inlineStr">
-        <is>
-          <t>Power</t>
-        </is>
-      </c>
-      <c r="D20" s="2" t="n">
-        <v>12</v>
-      </c>
-      <c r="E20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="F20" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G20" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H20" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K20" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L20" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B21" s="2" t="inlineStr">
-        <is>
-          <t>GEO: You are in a Warning Zone (Airport Class Airspace Unpaved Airports Power Plant) Fly with caution .</t>
-        </is>
-      </c>
-      <c r="C21" s="2" t="inlineStr">
-        <is>
-          <t>Plant)</t>
-        </is>
-      </c>
-      <c r="D21" s="2" t="n">
-        <v>13</v>
-      </c>
-      <c r="E21" s="2" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F21" s="2" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G21" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H21" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K21" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L21" s="2" t="inlineStr">
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I21" t="b">
+        <v>1</v>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K21" t="b">
+        <v>1</v>
+      </c>
+      <c r="L21" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -2634,208 +2634,208 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" s="2" t="n">
+      <c r="A43" t="n">
         <v>3</v>
       </c>
-      <c r="B43" s="2" t="inlineStr">
+      <c r="B43" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C43" s="2" t="inlineStr">
+      <c r="C43" t="inlineStr">
         <is>
           <t>Settings</t>
         </is>
       </c>
-      <c r="D43" s="2" t="n">
+      <c r="D43" t="n">
         <v>7</v>
       </c>
-      <c r="E43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F43" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G43" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H43" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K43" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L43" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I43" t="b">
+        <v>1</v>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K43" t="b">
+        <v>1</v>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
     <row r="44">
-      <c r="A44" s="2" t="n">
+      <c r="A44" t="n">
         <v>3</v>
       </c>
-      <c r="B44" s="2" t="inlineStr">
+      <c r="B44" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C44" s="2" t="inlineStr">
+      <c r="C44" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D44" s="2" t="n">
+      <c r="D44" t="n">
         <v>8</v>
       </c>
-      <c r="E44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F44" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G44" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H44" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J44" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K44" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L44" s="2" t="inlineStr">
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I44" t="b">
+        <v>1</v>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K44" t="b">
+        <v>1</v>
+      </c>
+      <c r="L44" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="45">
-      <c r="A45" s="2" t="n">
+      <c r="A45" t="n">
         <v>3</v>
       </c>
-      <c r="B45" s="2" t="inlineStr">
+      <c r="B45" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C45" s="2" t="inlineStr">
+      <c r="C45" t="inlineStr">
         <is>
           <t>update</t>
         </is>
       </c>
-      <c r="D45" s="2" t="n">
+      <c r="D45" t="n">
         <v>9</v>
       </c>
-      <c r="E45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F45" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G45" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H45" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J45" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K45" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L45" s="2" t="inlineStr">
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I45" t="b">
+        <v>1</v>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K45" t="b">
+        <v>1</v>
+      </c>
+      <c r="L45" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="46">
-      <c r="A46" s="2" t="n">
+      <c r="A46" t="n">
         <v>3</v>
       </c>
-      <c r="B46" s="2" t="inlineStr">
+      <c r="B46" t="inlineStr">
         <is>
           <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
-      <c r="C46" s="2" t="inlineStr">
+      <c r="C46" t="inlineStr">
         <is>
           <t>firmware</t>
         </is>
       </c>
-      <c r="D46" s="2" t="n">
+      <c r="D46" t="n">
         <v>10</v>
       </c>
-      <c r="E46" s="2" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F46" s="2" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="G46" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H46" s="2" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J46" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K46" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L46" s="2" t="inlineStr">
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I46" t="b">
+        <v>1</v>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="K46" t="b">
+        <v>1</v>
+      </c>
+      <c r="L46" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -4454,106 +4454,106 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" s="2" t="n">
+      <c r="A78" t="n">
         <v>8</v>
       </c>
-      <c r="B78" s="2" t="inlineStr">
+      <c r="B78" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C78" s="2" t="inlineStr">
+      <c r="C78" t="inlineStr">
         <is>
           <t>Strong</t>
         </is>
       </c>
-      <c r="D78" s="2" t="n">
+      <c r="D78" t="n">
         <v>0</v>
       </c>
-      <c r="E78" s="2" t="inlineStr">
+      <c r="E78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F78" s="2" t="inlineStr">
+      <c r="F78" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G78" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H78" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J78" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K78" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L78" s="2" t="inlineStr">
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I78" t="b">
+        <v>1</v>
+      </c>
+      <c r="J78" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K78" t="b">
+        <v>1</v>
+      </c>
+      <c r="L78" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="79">
-      <c r="A79" s="2" t="n">
+      <c r="A79" t="n">
         <v>8</v>
       </c>
-      <c r="B79" s="2" t="inlineStr">
+      <c r="B79" t="inlineStr">
         <is>
           <t>Strong Interference Now Fly with caution .</t>
         </is>
       </c>
-      <c r="C79" s="2" t="inlineStr">
+      <c r="C79" t="inlineStr">
         <is>
           <t>Interference</t>
         </is>
       </c>
-      <c r="D79" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E79" s="2" t="inlineStr">
+      <c r="D79" t="n">
+        <v>1</v>
+      </c>
+      <c r="E79" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F79" s="2" t="inlineStr">
-        <is>
-          <t>I-Event</t>
-        </is>
-      </c>
-      <c r="G79" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H79" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J79" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K79" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L79" s="2" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I79" t="b">
+        <v>1</v>
+      </c>
+      <c r="J79" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K79" t="b">
+        <v>1</v>
+      </c>
+      <c r="L79" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_I_as_E</t>
         </is>
       </c>
     </row>
@@ -10642,158 +10642,158 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
+      <c r="A197" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B197" t="inlineStr">
+      <c r="B197" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C197" t="inlineStr">
+      <c r="C197" s="2" t="inlineStr">
         <is>
           <t>Running</t>
         </is>
       </c>
-      <c r="D197" t="n">
+      <c r="D197" s="2" t="n">
         <v>0</v>
       </c>
-      <c r="E197" t="inlineStr">
+      <c r="E197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F197" t="inlineStr">
+      <c r="F197" s="2" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G197" t="b">
-        <v>1</v>
-      </c>
-      <c r="H197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I197" t="b">
-        <v>1</v>
-      </c>
-      <c r="J197" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K197" t="b">
-        <v>1</v>
-      </c>
-      <c r="L197" t="inlineStr">
+      <c r="G197" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H197" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J197" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K197" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L197" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
+      <c r="A198" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B198" t="inlineStr">
+      <c r="B198" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C198" t="inlineStr">
+      <c r="C198" s="2" t="inlineStr">
         <is>
           <t>Flight</t>
         </is>
       </c>
-      <c r="D198" t="n">
-        <v>1</v>
-      </c>
-      <c r="E198" t="inlineStr">
+      <c r="D198" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F198" t="inlineStr">
+      <c r="F198" s="2" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G198" t="b">
-        <v>1</v>
-      </c>
-      <c r="H198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I198" t="b">
-        <v>1</v>
-      </c>
-      <c r="J198" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K198" t="b">
-        <v>1</v>
-      </c>
-      <c r="L198" t="inlineStr">
+      <c r="G198" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H198" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J198" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K198" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L198" s="2" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
+      <c r="A199" s="2" t="n">
         <v>19</v>
       </c>
-      <c r="B199" t="inlineStr">
+      <c r="B199" s="2" t="inlineStr">
         <is>
           <t>Running Flight Simulator Restart aircraft to take off .</t>
         </is>
       </c>
-      <c r="C199" t="inlineStr">
+      <c r="C199" s="2" t="inlineStr">
         <is>
           <t>Simulator</t>
         </is>
       </c>
-      <c r="D199" t="n">
+      <c r="D199" s="2" t="n">
         <v>2</v>
       </c>
-      <c r="E199" t="inlineStr">
+      <c r="E199" s="2" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F199" t="inlineStr">
-        <is>
-          <t>E-Event</t>
-        </is>
-      </c>
-      <c r="G199" t="b">
-        <v>1</v>
-      </c>
-      <c r="H199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I199" t="b">
-        <v>1</v>
-      </c>
-      <c r="J199" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K199" t="b">
-        <v>1</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F199" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G199" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H199" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="J199" s="2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="K199" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L199" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
         </is>
       </c>
     </row>
@@ -11301,11 +11301,11 @@
         </is>
       </c>
       <c r="I209" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J209" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K209" s="2" t="b">
@@ -11353,11 +11353,11 @@
         </is>
       </c>
       <c r="I210" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J210" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K210" s="2" t="b">
@@ -11405,11 +11405,11 @@
         </is>
       </c>
       <c r="I211" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J211" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K211" s="2" t="b">
@@ -11457,11 +11457,11 @@
         </is>
       </c>
       <c r="I212" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J212" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K212" s="2" t="b">
@@ -11509,11 +11509,11 @@
         </is>
       </c>
       <c r="I213" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J213" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K213" s="2" t="b">
@@ -11561,11 +11561,11 @@
         </is>
       </c>
       <c r="I214" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J214" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K214" s="2" t="b">
@@ -11613,11 +11613,11 @@
         </is>
       </c>
       <c r="I215" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J215" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K215" s="2" t="b">
@@ -11665,11 +11665,11 @@
         </is>
       </c>
       <c r="I216" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J216" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K216" s="2" t="b">
@@ -11717,11 +11717,11 @@
         </is>
       </c>
       <c r="I217" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J217" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K217" s="2" t="b">
@@ -11757,7 +11757,7 @@
       </c>
       <c r="F218" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G218" s="2" t="b">
@@ -11769,11 +11769,11 @@
         </is>
       </c>
       <c r="I218" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J218" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K218" s="2" t="b">
@@ -11781,7 +11781,7 @@
       </c>
       <c r="L218" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11809,7 +11809,7 @@
       </c>
       <c r="F219" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G219" s="2" t="b">
@@ -11821,11 +11821,11 @@
         </is>
       </c>
       <c r="I219" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J219" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K219" s="2" t="b">
@@ -11833,7 +11833,7 @@
       </c>
       <c r="L219" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11861,7 +11861,7 @@
       </c>
       <c r="F220" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G220" s="2" t="b">
@@ -11873,11 +11873,11 @@
         </is>
       </c>
       <c r="I220" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J220" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K220" s="2" t="b">
@@ -11885,7 +11885,7 @@
       </c>
       <c r="L220" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11913,7 +11913,7 @@
       </c>
       <c r="F221" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G221" s="2" t="b">
@@ -11925,11 +11925,11 @@
         </is>
       </c>
       <c r="I221" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J221" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K221" s="2" t="b">
@@ -11937,7 +11937,7 @@
       </c>
       <c r="L221" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -11965,7 +11965,7 @@
       </c>
       <c r="F222" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G222" s="2" t="b">
@@ -11977,11 +11977,11 @@
         </is>
       </c>
       <c r="I222" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J222" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K222" s="2" t="b">
@@ -11989,7 +11989,7 @@
       </c>
       <c r="L222" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12017,7 +12017,7 @@
       </c>
       <c r="F223" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G223" s="2" t="b">
@@ -12029,11 +12029,11 @@
         </is>
       </c>
       <c r="I223" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J223" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K223" s="2" t="b">
@@ -12041,7 +12041,7 @@
       </c>
       <c r="L223" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12069,7 +12069,7 @@
       </c>
       <c r="F224" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G224" s="2" t="b">
@@ -12081,11 +12081,11 @@
         </is>
       </c>
       <c r="I224" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J224" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K224" s="2" t="b">
@@ -12093,7 +12093,7 @@
       </c>
       <c r="L224" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12121,7 +12121,7 @@
       </c>
       <c r="F225" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G225" s="2" t="b">
@@ -12133,11 +12133,11 @@
         </is>
       </c>
       <c r="I225" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J225" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K225" s="2" t="b">
@@ -12145,7 +12145,7 @@
       </c>
       <c r="L225" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12173,7 +12173,7 @@
       </c>
       <c r="F226" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G226" s="2" t="b">
@@ -12185,11 +12185,11 @@
         </is>
       </c>
       <c r="I226" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J226" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K226" s="2" t="b">
@@ -12197,7 +12197,7 @@
       </c>
       <c r="L226" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12225,7 +12225,7 @@
       </c>
       <c r="F227" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G227" s="2" t="b">
@@ -12237,11 +12237,11 @@
         </is>
       </c>
       <c r="I227" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J227" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K227" s="2" t="b">
@@ -12249,7 +12249,7 @@
       </c>
       <c r="L227" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12277,7 +12277,7 @@
       </c>
       <c r="F228" s="2" t="inlineStr">
         <is>
-          <t>E-NonEvent</t>
+          <t>E-Event</t>
         </is>
       </c>
       <c r="G228" s="2" t="b">
@@ -12289,11 +12289,11 @@
         </is>
       </c>
       <c r="I228" s="2" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J228" s="2" t="inlineStr">
         <is>
-          <t>None</t>
+          <t>Event</t>
         </is>
       </c>
       <c r="K228" s="2" t="b">
@@ -12301,7 +12301,7 @@
       </c>
       <c r="L228" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -12358,416 +12358,416 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" s="2" t="n">
+      <c r="A230" t="n">
         <v>21</v>
       </c>
-      <c r="B230" s="2" t="inlineStr">
+      <c r="B230" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C230" s="2" t="inlineStr">
+      <c r="C230" t="inlineStr">
         <is>
           <t>Failed</t>
         </is>
       </c>
-      <c r="D230" s="2" t="n">
+      <c r="D230" t="n">
         <v>0</v>
       </c>
-      <c r="E230" s="2" t="inlineStr">
+      <c r="E230" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="F230" s="2" t="inlineStr">
+      <c r="F230" t="inlineStr">
         <is>
           <t>B-Event</t>
         </is>
       </c>
-      <c r="G230" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H230" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J230" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K230" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L230" s="2" t="inlineStr">
+      <c r="G230" t="b">
+        <v>1</v>
+      </c>
+      <c r="H230" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I230" t="b">
+        <v>1</v>
+      </c>
+      <c r="J230" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K230" t="b">
+        <v>1</v>
+      </c>
+      <c r="L230" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="231">
-      <c r="A231" s="2" t="n">
+      <c r="A231" t="n">
         <v>21</v>
       </c>
-      <c r="B231" s="2" t="inlineStr">
+      <c r="B231" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C231" s="2" t="inlineStr">
+      <c r="C231" t="inlineStr">
         <is>
           <t>to</t>
         </is>
       </c>
-      <c r="D231" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="E231" s="2" t="inlineStr">
+      <c r="D231" t="n">
+        <v>1</v>
+      </c>
+      <c r="E231" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F231" s="2" t="inlineStr">
+      <c r="F231" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G231" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H231" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J231" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K231" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L231" s="2" t="inlineStr">
+      <c r="G231" t="b">
+        <v>1</v>
+      </c>
+      <c r="H231" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I231" t="b">
+        <v>1</v>
+      </c>
+      <c r="J231" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K231" t="b">
+        <v>1</v>
+      </c>
+      <c r="L231" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="232">
-      <c r="A232" s="2" t="n">
+      <c r="A232" t="n">
         <v>21</v>
       </c>
-      <c r="B232" s="2" t="inlineStr">
+      <c r="B232" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C232" s="2" t="inlineStr">
+      <c r="C232" t="inlineStr">
         <is>
           <t>lower</t>
         </is>
       </c>
-      <c r="D232" s="2" t="n">
+      <c r="D232" t="n">
         <v>2</v>
       </c>
-      <c r="E232" s="2" t="inlineStr">
+      <c r="E232" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F232" s="2" t="inlineStr">
+      <c r="F232" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G232" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H232" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J232" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K232" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L232" s="2" t="inlineStr">
+      <c r="G232" t="b">
+        <v>1</v>
+      </c>
+      <c r="H232" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I232" t="b">
+        <v>1</v>
+      </c>
+      <c r="J232" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K232" t="b">
+        <v>1</v>
+      </c>
+      <c r="L232" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="233">
-      <c r="A233" s="2" t="n">
+      <c r="A233" t="n">
         <v>21</v>
       </c>
-      <c r="B233" s="2" t="inlineStr">
+      <c r="B233" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C233" s="2" t="inlineStr">
+      <c r="C233" t="inlineStr">
         <is>
           <t>or</t>
         </is>
       </c>
-      <c r="D233" s="2" t="n">
+      <c r="D233" t="n">
         <v>3</v>
       </c>
-      <c r="E233" s="2" t="inlineStr">
+      <c r="E233" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F233" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G233" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H233" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J233" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K233" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L233" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F233" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G233" t="b">
+        <v>1</v>
+      </c>
+      <c r="H233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I233" t="b">
+        <v>1</v>
+      </c>
+      <c r="J233" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K233" t="b">
+        <v>1</v>
+      </c>
+      <c r="L233" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="234">
-      <c r="A234" s="2" t="n">
+      <c r="A234" t="n">
         <v>21</v>
       </c>
-      <c r="B234" s="2" t="inlineStr">
+      <c r="B234" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C234" s="2" t="inlineStr">
+      <c r="C234" t="inlineStr">
         <is>
           <t>pack</t>
         </is>
       </c>
-      <c r="D234" s="2" t="n">
+      <c r="D234" t="n">
         <v>4</v>
       </c>
-      <c r="E234" s="2" t="inlineStr">
+      <c r="E234" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F234" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G234" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H234" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J234" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K234" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L234" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F234" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G234" t="b">
+        <v>1</v>
+      </c>
+      <c r="H234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I234" t="b">
+        <v>1</v>
+      </c>
+      <c r="J234" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K234" t="b">
+        <v>1</v>
+      </c>
+      <c r="L234" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="235">
-      <c r="A235" s="2" t="n">
+      <c r="A235" t="n">
         <v>21</v>
       </c>
-      <c r="B235" s="2" t="inlineStr">
+      <c r="B235" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C235" s="2" t="inlineStr">
+      <c r="C235" t="inlineStr">
         <is>
           <t>up</t>
         </is>
       </c>
-      <c r="D235" s="2" t="n">
+      <c r="D235" t="n">
         <v>5</v>
       </c>
-      <c r="E235" s="2" t="inlineStr">
+      <c r="E235" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F235" s="2" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G235" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H235" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J235" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K235" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L235" s="2" t="inlineStr">
-        <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+      <c r="F235" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G235" t="b">
+        <v>1</v>
+      </c>
+      <c r="H235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I235" t="b">
+        <v>1</v>
+      </c>
+      <c r="J235" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K235" t="b">
+        <v>1</v>
+      </c>
+      <c r="L235" t="inlineStr">
+        <is>
+          <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="236">
-      <c r="A236" s="2" t="n">
+      <c r="A236" t="n">
         <v>21</v>
       </c>
-      <c r="B236" s="2" t="inlineStr">
+      <c r="B236" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C236" s="2" t="inlineStr">
+      <c r="C236" t="inlineStr">
         <is>
           <t>landing</t>
         </is>
       </c>
-      <c r="D236" s="2" t="n">
+      <c r="D236" t="n">
         <v>6</v>
       </c>
-      <c r="E236" s="2" t="inlineStr">
+      <c r="E236" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="F236" s="2" t="inlineStr">
+      <c r="F236" t="inlineStr">
         <is>
           <t>I-Event</t>
         </is>
       </c>
-      <c r="G236" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H236" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J236" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K236" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L236" s="2" t="inlineStr">
+      <c r="G236" t="b">
+        <v>1</v>
+      </c>
+      <c r="H236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I236" t="b">
+        <v>1</v>
+      </c>
+      <c r="J236" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K236" t="b">
+        <v>1</v>
+      </c>
+      <c r="L236" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
       </c>
     </row>
     <row r="237">
-      <c r="A237" s="2" t="n">
+      <c r="A237" t="n">
         <v>21</v>
       </c>
-      <c r="B237" s="2" t="inlineStr">
+      <c r="B237" t="inlineStr">
         <is>
           <t>Failed to lower or pack up landing gear Take care of your gimbal when landing .</t>
         </is>
       </c>
-      <c r="C237" s="2" t="inlineStr">
+      <c r="C237" t="inlineStr">
         <is>
           <t>gear</t>
         </is>
       </c>
-      <c r="D237" s="2" t="n">
+      <c r="D237" t="n">
         <v>7</v>
       </c>
-      <c r="E237" s="2" t="inlineStr">
+      <c r="E237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="F237" s="2" t="inlineStr">
+      <c r="F237" t="inlineStr">
         <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G237" s="2" t="b">
-        <v>1</v>
-      </c>
-      <c r="H237" s="2" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="J237" s="2" t="inlineStr">
-        <is>
-          <t>None</t>
-        </is>
-      </c>
-      <c r="K237" s="2" t="b">
-        <v>0</v>
-      </c>
-      <c r="L237" s="2" t="inlineStr">
+      <c r="G237" t="b">
+        <v>1</v>
+      </c>
+      <c r="H237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I237" t="b">
+        <v>1</v>
+      </c>
+      <c r="J237" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K237" t="b">
+        <v>1</v>
+      </c>
+      <c r="L237" t="inlineStr">
         <is>
           <t>Correct</t>
         </is>
@@ -20557,11 +20557,11 @@
         </is>
       </c>
       <c r="I387" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J387" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K387" s="2" t="b">
@@ -20609,11 +20609,11 @@
         </is>
       </c>
       <c r="I388" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J388" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K388" s="2" t="b">
@@ -20649,7 +20649,7 @@
       </c>
       <c r="F389" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G389" s="2" t="b">
@@ -20661,11 +20661,11 @@
         </is>
       </c>
       <c r="I389" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J389" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K389" s="2" t="b">
@@ -20673,7 +20673,7 @@
       </c>
       <c r="L389" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_Event_as_NonEvent</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
@@ -20713,11 +20713,11 @@
         </is>
       </c>
       <c r="I390" s="2" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J390" s="2" t="inlineStr">
         <is>
-          <t>NonEvent</t>
+          <t>None</t>
         </is>
       </c>
       <c r="K390" s="2" t="b">
@@ -24237,83 +24237,83 @@
       </c>
       <c r="F458" t="inlineStr">
         <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G458" t="b">
+        <v>1</v>
+      </c>
+      <c r="H458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="I458" t="b">
+        <v>1</v>
+      </c>
+      <c r="J458" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K458" t="b">
+        <v>1</v>
+      </c>
+      <c r="L458" t="inlineStr">
+        <is>
+          <t>Wrong_Tag_E_as_I</t>
+        </is>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B459" s="2" t="inlineStr">
+        <is>
+          <t>Compass Interference Temp Max Altitude 98ft .</t>
+        </is>
+      </c>
+      <c r="C459" s="2" t="inlineStr">
+        <is>
+          <t>Temp</t>
+        </is>
+      </c>
+      <c r="D459" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E459" s="2" t="inlineStr">
+        <is>
+          <t>B-NonEvent</t>
+        </is>
+      </c>
+      <c r="F459" s="2" t="inlineStr">
+        <is>
           <t>E-Event</t>
         </is>
       </c>
-      <c r="G458" t="b">
-        <v>1</v>
-      </c>
-      <c r="H458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="I458" t="b">
-        <v>1</v>
-      </c>
-      <c r="J458" t="inlineStr">
-        <is>
-          <t>Event</t>
-        </is>
-      </c>
-      <c r="K458" t="b">
-        <v>1</v>
-      </c>
-      <c r="L458" t="inlineStr">
-        <is>
-          <t>Correct</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="n">
-        <v>42</v>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>Compass Interference Temp Max Altitude 98ft .</t>
-        </is>
-      </c>
-      <c r="C459" t="inlineStr">
-        <is>
-          <t>Temp</t>
-        </is>
-      </c>
-      <c r="D459" t="n">
-        <v>2</v>
-      </c>
-      <c r="E459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="F459" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G459" t="b">
-        <v>1</v>
-      </c>
-      <c r="H459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I459" t="b">
-        <v>1</v>
-      </c>
-      <c r="J459" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K459" t="b">
-        <v>1</v>
-      </c>
-      <c r="L459" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="G459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H459" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I459" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J459" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K459" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L459" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
@@ -24341,7 +24341,7 @@
       </c>
       <c r="F460" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>B-NonEvent</t>
         </is>
       </c>
       <c r="G460" t="b">
@@ -24365,7 +24365,7 @@
       </c>
       <c r="L460" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Tag_I_as_B</t>
         </is>
       </c>
     </row>
@@ -25878,366 +25878,366 @@
       </c>
     </row>
     <row r="490">
-      <c r="A490" t="n">
+      <c r="A490" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B490" t="inlineStr">
+      <c r="B490" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C490" t="inlineStr">
+      <c r="C490" s="2" t="inlineStr">
         <is>
           <t>Not</t>
         </is>
       </c>
-      <c r="D490" t="n">
+      <c r="D490" s="2" t="n">
         <v>7</v>
       </c>
-      <c r="E490" t="inlineStr">
+      <c r="E490" s="2" t="inlineStr">
         <is>
           <t>B-NonEvent</t>
         </is>
       </c>
-      <c r="F490" t="inlineStr">
-        <is>
-          <t>B-NonEvent</t>
-        </is>
-      </c>
-      <c r="G490" t="b">
-        <v>1</v>
-      </c>
-      <c r="H490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I490" t="b">
-        <v>1</v>
-      </c>
-      <c r="J490" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K490" t="b">
-        <v>1</v>
-      </c>
-      <c r="L490" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F490" s="2" t="inlineStr">
+        <is>
+          <t>B-Event</t>
+        </is>
+      </c>
+      <c r="G490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H490" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I490" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J490" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K490" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L490" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="491">
-      <c r="A491" t="n">
+      <c r="A491" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B491" t="inlineStr">
+      <c r="B491" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C491" t="inlineStr">
+      <c r="C491" s="2" t="inlineStr">
         <is>
           <t>suitable</t>
         </is>
       </c>
-      <c r="D491" t="n">
+      <c r="D491" s="2" t="n">
         <v>8</v>
       </c>
-      <c r="E491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F491" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G491" t="b">
-        <v>1</v>
-      </c>
-      <c r="H491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I491" t="b">
-        <v>1</v>
-      </c>
-      <c r="J491" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K491" t="b">
-        <v>1</v>
-      </c>
-      <c r="L491" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E491" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F491" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H491" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I491" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J491" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K491" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L491" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="492">
-      <c r="A492" t="n">
+      <c r="A492" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B492" t="inlineStr">
+      <c r="B492" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C492" t="inlineStr">
+      <c r="C492" s="2" t="inlineStr">
         <is>
           <t>for</t>
         </is>
       </c>
-      <c r="D492" t="n">
+      <c r="D492" s="2" t="n">
         <v>9</v>
       </c>
-      <c r="E492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F492" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G492" t="b">
-        <v>1</v>
-      </c>
-      <c r="H492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I492" t="b">
-        <v>1</v>
-      </c>
-      <c r="J492" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K492" t="b">
-        <v>1</v>
-      </c>
-      <c r="L492" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E492" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F492" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H492" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I492" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J492" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K492" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L492" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="493">
-      <c r="A493" t="n">
+      <c r="A493" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B493" t="inlineStr">
+      <c r="B493" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C493" t="inlineStr">
+      <c r="C493" s="2" t="inlineStr">
         <is>
           <t>shooting</t>
         </is>
       </c>
-      <c r="D493" t="n">
+      <c r="D493" s="2" t="n">
         <v>10</v>
       </c>
-      <c r="E493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F493" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G493" t="b">
-        <v>1</v>
-      </c>
-      <c r="H493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I493" t="b">
-        <v>1</v>
-      </c>
-      <c r="J493" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K493" t="b">
-        <v>1</v>
-      </c>
-      <c r="L493" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E493" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F493" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H493" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I493" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J493" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K493" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L493" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="494">
-      <c r="A494" t="n">
+      <c r="A494" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B494" t="inlineStr">
+      <c r="B494" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C494" t="inlineStr">
+      <c r="C494" s="2" t="inlineStr">
         <is>
           <t>a</t>
         </is>
       </c>
-      <c r="D494" t="n">
+      <c r="D494" s="2" t="n">
         <v>11</v>
       </c>
-      <c r="E494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F494" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G494" t="b">
-        <v>1</v>
-      </c>
-      <c r="H494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I494" t="b">
-        <v>1</v>
-      </c>
-      <c r="J494" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K494" t="b">
-        <v>1</v>
-      </c>
-      <c r="L494" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E494" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F494" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H494" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I494" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J494" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K494" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L494" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="495">
-      <c r="A495" t="n">
+      <c r="A495" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B495" t="inlineStr">
+      <c r="B495" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C495" t="inlineStr">
+      <c r="C495" s="2" t="inlineStr">
         <is>
           <t>4K</t>
         </is>
       </c>
-      <c r="D495" t="n">
+      <c r="D495" s="2" t="n">
         <v>12</v>
       </c>
-      <c r="E495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="F495" t="inlineStr">
-        <is>
-          <t>I-NonEvent</t>
-        </is>
-      </c>
-      <c r="G495" t="b">
-        <v>1</v>
-      </c>
-      <c r="H495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I495" t="b">
-        <v>1</v>
-      </c>
-      <c r="J495" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K495" t="b">
-        <v>1</v>
-      </c>
-      <c r="L495" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="E495" s="2" t="inlineStr">
+        <is>
+          <t>I-NonEvent</t>
+        </is>
+      </c>
+      <c r="F495" s="2" t="inlineStr">
+        <is>
+          <t>I-Event</t>
+        </is>
+      </c>
+      <c r="G495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H495" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I495" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J495" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K495" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L495" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
     <row r="496">
-      <c r="A496" t="n">
+      <c r="A496" s="2" t="n">
         <v>45</v>
       </c>
-      <c r="B496" t="inlineStr">
+      <c r="B496" s="2" t="inlineStr">
         <is>
           <t>SD card write speed is too slow Not suitable for shooting a 4K video .</t>
         </is>
       </c>
-      <c r="C496" t="inlineStr">
+      <c r="C496" s="2" t="inlineStr">
         <is>
           <t>video</t>
         </is>
       </c>
-      <c r="D496" t="n">
+      <c r="D496" s="2" t="n">
         <v>13</v>
       </c>
-      <c r="E496" t="inlineStr">
+      <c r="E496" s="2" t="inlineStr">
         <is>
           <t>E-NonEvent</t>
         </is>
       </c>
-      <c r="F496" t="inlineStr">
-        <is>
-          <t>E-NonEvent</t>
-        </is>
-      </c>
-      <c r="G496" t="b">
-        <v>1</v>
-      </c>
-      <c r="H496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="I496" t="b">
-        <v>1</v>
-      </c>
-      <c r="J496" t="inlineStr">
-        <is>
-          <t>NonEvent</t>
-        </is>
-      </c>
-      <c r="K496" t="b">
-        <v>1</v>
-      </c>
-      <c r="L496" t="inlineStr">
-        <is>
-          <t>Correct</t>
+      <c r="F496" s="2" t="inlineStr">
+        <is>
+          <t>E-Event</t>
+        </is>
+      </c>
+      <c r="G496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H496" s="2" t="inlineStr">
+        <is>
+          <t>NonEvent</t>
+        </is>
+      </c>
+      <c r="I496" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="J496" s="2" t="inlineStr">
+        <is>
+          <t>Event</t>
+        </is>
+      </c>
+      <c r="K496" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="L496" s="2" t="inlineStr">
+        <is>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>
